--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1986.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1986.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21201228104541</v>
+        <v>0.7037333250045776</v>
       </c>
       <c r="B1">
-        <v>2.232429751633353</v>
+        <v>0.8482045531272888</v>
       </c>
       <c r="C1">
-        <v>8.352433337565351</v>
+        <v>1.147632598876953</v>
       </c>
       <c r="D1">
-        <v>2.594567595966987</v>
+        <v>3.269025564193726</v>
       </c>
       <c r="E1">
-        <v>1.171809253285636</v>
+        <v>4.278785228729248</v>
       </c>
     </row>
   </sheetData>
